--- a/public/format/FORMAT SPT TAHUNAN LAMPIRAN 3.xlsx
+++ b/public/format/FORMAT SPT TAHUNAN LAMPIRAN 3.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FEMBI NUR ILHAM\Tamplate\ecosystem\public\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F93EE1A-7BAD-448C-88B4-D2C5186A559E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746599C5-F378-4FDE-AD7B-FDD951A507CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
-    <sheet name="SETTING" sheetId="2" r:id="rId2"/>
+    <sheet name="PETUNJUK" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="55">
   <si>
     <t>NO</t>
   </si>
@@ -266,6 +266,65 @@
   </si>
   <si>
     <t>Pasal 22</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Keterangan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Kode
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Jenis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Dividen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>SKPPKP</t>
+    </r>
+  </si>
+  <si>
+    <t>Kode Pasal</t>
+  </si>
+  <si>
+    <t>Badan Usaha IndustE2:E18ri Semen</t>
   </si>
 </sst>
 </file>
@@ -278,7 +337,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +433,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -383,7 +455,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -479,6 +551,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -505,7 +590,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -568,6 +653,51 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="17" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="7" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="5" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -893,13 +1023,13 @@
   </sheetPr>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="39" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
@@ -950,7 +1080,7 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -986,7 +1116,40 @@
       <c r="L2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G3" s="4"/>
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7">
+        <v>110000080123000</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3">
+        <v>25000000</v>
+      </c>
+      <c r="G3">
+        <v>250000</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="6">
+        <v>43864</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G4" s="4"/>
@@ -1008,15 +1171,15 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{30EB4795-01A2-4392-A42E-AFA92F8354AC}">
           <x14:formula1>
-            <xm:f>SETTING!$B$2:$B$18</xm:f>
+            <xm:f>PETUNJUK!$B$2:$B$18</xm:f>
           </x14:formula1>
-          <xm:sqref>D2</xm:sqref>
+          <xm:sqref>D2:D3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{CB1C16CB-68F0-47B1-BE34-CFE8E5116C8D}">
           <x14:formula1>
-            <xm:f>SETTING!$E$2:$E$27</xm:f>
+            <xm:f>PETUNJUK!$E$2:$E$27</xm:f>
           </x14:formula1>
-          <xm:sqref>E2</xm:sqref>
+          <xm:sqref>E2:E3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1026,19 +1189,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C892DFC2-4E7F-4A02-8D5E-BF7B60E2E837}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" customWidth="1"/>
     <col min="5" max="5" width="98.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>16</v>
       </c>
@@ -1052,7 +1217,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>22</v>
       </c>
@@ -1063,10 +1228,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>23</v>
       </c>
@@ -1080,7 +1245,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>26</v>
       </c>
@@ -1094,7 +1259,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>23</v>
       </c>
@@ -1108,7 +1273,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>26</v>
       </c>
@@ -1122,7 +1287,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>23</v>
       </c>
@@ -1136,7 +1301,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>26</v>
       </c>
@@ -1150,7 +1315,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>23</v>
       </c>
@@ -1164,7 +1329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>26</v>
       </c>
@@ -1178,7 +1343,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>23</v>
       </c>
@@ -1192,7 +1357,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>26</v>
       </c>
@@ -1206,7 +1371,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>23</v>
       </c>
@@ -1220,7 +1385,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>26</v>
       </c>
@@ -1234,7 +1399,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>23</v>
       </c>
@@ -1248,7 +1413,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>26</v>
       </c>
@@ -1262,7 +1427,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>23</v>
       </c>
@@ -1276,7 +1441,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>26</v>
       </c>
@@ -1290,7 +1455,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="D19" s="19">
         <v>18</v>
       </c>
@@ -1298,7 +1463,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="D20" s="19">
         <v>19</v>
       </c>
@@ -1306,7 +1471,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="D21" s="19">
         <v>20</v>
       </c>
@@ -1314,7 +1479,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="D22" s="19">
         <v>21</v>
       </c>
@@ -1322,7 +1487,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="D23" s="19">
         <v>22</v>
       </c>
@@ -1330,7 +1495,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="D24" s="19">
         <v>23</v>
       </c>
@@ -1338,7 +1503,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="D25" s="19">
         <v>24</v>
       </c>
@@ -1346,7 +1511,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="D26" s="19">
         <v>25</v>
       </c>
@@ -1354,7 +1519,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="D27" s="20">
         <v>26</v>
       </c>
@@ -1362,7 +1527,480 @@
         <v>38</v>
       </c>
     </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="20">
+        <v>22</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
+        <v>22</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="30">
+        <v>2</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="20">
+        <v>22</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="30">
+        <v>3</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="20">
+        <v>22</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="30">
+        <v>4</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="20">
+        <v>22</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="30">
+        <v>5</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="20">
+        <v>22</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="30">
+        <v>6</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20">
+        <v>22</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="30">
+        <v>7</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
+        <v>22</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="30">
+        <v>8</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="20">
+        <v>22</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="30">
+        <v>9</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="20">
+        <v>22</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="20">
+        <v>10</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="20">
+        <v>22</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="20">
+        <v>11</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="20">
+        <v>22</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="20">
+        <v>12</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="20">
+        <v>22</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="20">
+        <v>13</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="20">
+        <v>22</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="20">
+        <v>14</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="20">
+        <v>22</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="20">
+        <v>15</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="20">
+        <v>22</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="20">
+        <v>16</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="20">
+        <v>22</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="20">
+        <v>17</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="20">
+        <v>23</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="31">
+        <v>18</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="20">
+        <v>26</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="32"/>
+      <c r="D48" s="36"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="20">
+        <v>23</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="31">
+        <v>19</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="20">
+        <v>26</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="32"/>
+      <c r="D50" s="36"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="20">
+        <v>23</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="31">
+        <v>20</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="20">
+        <v>26</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="32"/>
+      <c r="D52" s="36"/>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="20">
+        <v>23</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="31">
+        <v>21</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="20">
+        <v>26</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="32"/>
+      <c r="D54" s="36"/>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="20">
+        <v>23</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="31">
+        <v>22</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="20">
+        <v>26</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="32"/>
+      <c r="D56" s="36"/>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="20">
+        <v>23</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="31">
+        <v>23</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="20">
+        <v>26</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="32"/>
+      <c r="D58" s="36"/>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="20">
+        <v>23</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="31">
+        <v>24</v>
+      </c>
+      <c r="D59" s="38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="20">
+        <v>26</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="32"/>
+      <c r="D60" s="36"/>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="20">
+        <v>23</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="31">
+        <v>25</v>
+      </c>
+      <c r="D61" s="38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="20">
+        <v>26</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="32"/>
+      <c r="D62" s="36"/>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="33">
+        <v>26</v>
+      </c>
+      <c r="D63" s="37" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/format/FORMAT SPT TAHUNAN LAMPIRAN 3.xlsx
+++ b/public/format/FORMAT SPT TAHUNAN LAMPIRAN 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FEMBI NUR ILHAM\Tamplate\ecosystem\public\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746599C5-F378-4FDE-AD7B-FDD951A507CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE27B9FD-CF91-4A66-A257-B8D121FCAD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="52">
   <si>
     <t>NO</t>
   </si>
@@ -60,12 +60,6 @@
   </si>
   <si>
     <t>Pbk-23/2020</t>
-  </si>
-  <si>
-    <t>Jakarta Selatan</t>
-  </si>
-  <si>
-    <t>ABCD5690PLIK8901</t>
   </si>
   <si>
     <t>Jenis PPH</t>
@@ -322,9 +316,6 @@
   </si>
   <si>
     <t>Kode Pasal</t>
-  </si>
-  <si>
-    <t>Badan Usaha IndustE2:E18ri Semen</t>
   </si>
 </sst>
 </file>
@@ -590,7 +581,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -606,71 +597,59 @@
     <xf numFmtId="1" fontId="10" fillId="0" borderId="5" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="5" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="17" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="5" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="6" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="5" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="5" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="17" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="6" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -678,26 +657,35 @@
     <xf numFmtId="1" fontId="10" fillId="0" borderId="7" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="5" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1023,13 +1011,13 @@
   </sheetPr>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="26" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
@@ -1044,37 +1032,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
       <c r="R1" s="2"/>
@@ -1090,10 +1078,10 @@
         <v>110000080123000</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F2">
         <v>25000000</v>
@@ -1107,12 +1095,8 @@
       <c r="I2" s="6">
         <v>43864</v>
       </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
+      <c r="J2"/>
+      <c r="K2"/>
       <c r="L2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1126,10 +1110,10 @@
         <v>110000080123000</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3">
         <v>25000000</v>
@@ -1143,12 +1127,8 @@
       <c r="I3" s="6">
         <v>43864</v>
       </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
+      <c r="J3"/>
+      <c r="K3"/>
       <c r="L3"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1191,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C892DFC2-4E7F-4A02-8D5E-BF7B60E2E837}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,793 +1183,786 @@
     <col min="5" max="5" width="98.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:5" s="32" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="32" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>22</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>22</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="12">
+      <c r="D2" s="35">
         <v>1</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="32" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>23</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="B3" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="35">
         <v>2</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="32" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>26</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="B4" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="35">
         <v>3</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="32" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>23</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="B5" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="35">
         <v>4</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="32" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>26</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="B6" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="35">
         <v>5</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="32" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>23</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="B7" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="35">
         <v>6</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="32" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>26</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="B8" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="35">
         <v>7</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="32" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>23</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="B9" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="35">
         <v>8</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="32" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>26</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="12">
+      <c r="B10" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="35">
         <v>9</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="32" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>23</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="13">
+      <c r="B11" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="8">
         <v>10</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="32" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>26</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="13">
+      <c r="B12" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="8">
         <v>11</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="32" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>23</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="13">
+      <c r="B13" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="8">
         <v>12</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="32" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>26</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="13">
+      <c r="B14" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="8">
         <v>13</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="32" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>23</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="13">
+      <c r="B15" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="8">
         <v>14</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="32" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>26</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="13">
+      <c r="B16" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="8">
         <v>15</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="32" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>23</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="13">
+      <c r="B17" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="8">
+        <v>16</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="32" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>26</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="8">
+        <v>17</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="32" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="22">
+        <v>18</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="32" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="22">
         <v>19</v>
       </c>
-      <c r="D18" s="13">
+      <c r="E20" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="32" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="22">
+        <v>20</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="32" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="22">
+        <v>21</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="32" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="22">
+        <v>22</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="32" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="22">
+        <v>23</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="32" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="22">
+        <v>24</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="32" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="22">
+        <v>25</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="32" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="11">
+        <v>26</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>22</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="21">
+        <v>1</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>22</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="21">
+        <v>2</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>22</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="21">
+        <v>3</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>22</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="21">
+        <v>4</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>22</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="21">
+        <v>5</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>22</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="21">
+        <v>6</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>22</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="21">
+        <v>7</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>22</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="21">
+        <v>8</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>22</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="21">
+        <v>9</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>22</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="11">
+        <v>10</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>22</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="11">
+        <v>11</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>22</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="11">
+        <v>12</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>22</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="11">
+        <v>13</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>22</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="11">
+        <v>14</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>22</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="11">
+        <v>15</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>22</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="11">
+        <v>16</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>22</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="11">
         <v>17</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="D46" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>23</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="27">
+        <v>18</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>26</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="28"/>
+      <c r="D48" s="30"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>23</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="27">
+        <v>19</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>26</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="28"/>
+      <c r="D50" s="30"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>23</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="27">
+        <v>20</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>26</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="28"/>
+      <c r="D52" s="30"/>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <v>23</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="27">
+        <v>21</v>
+      </c>
+      <c r="D53" s="31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="19">
-        <v>18</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="19">
-        <v>19</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="19">
-        <v>20</v>
-      </c>
-      <c r="E21" s="18" t="s">
+    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>26</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="28"/>
+      <c r="D54" s="30"/>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>23</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="27">
+        <v>22</v>
+      </c>
+      <c r="D55" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="19">
-        <v>21</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="19">
-        <v>22</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="19">
+    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
+        <v>26</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="28"/>
+      <c r="D56" s="30"/>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
         <v>23</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="19">
+      <c r="B57" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="27">
+        <v>23</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
+        <v>26</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="28"/>
+      <c r="D58" s="30"/>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
+        <v>23</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="27">
         <v>24</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="19">
+      <c r="D59" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
+        <v>26</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="28"/>
+      <c r="D60" s="30"/>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="11">
+        <v>23</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="27">
         <v>25</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="20">
+      <c r="D61" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="11">
         <v>26</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="27" t="s">
+      <c r="B62" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="28"/>
+      <c r="D62" s="30"/>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="23">
+        <v>26</v>
+      </c>
+      <c r="D63" s="25" t="s">
         <v>50</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
-        <v>22</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="30">
-        <v>1</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
-        <v>22</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="30">
-        <v>2</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
-        <v>22</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="30">
-        <v>3</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
-        <v>22</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="30">
-        <v>4</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
-        <v>22</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="30">
-        <v>5</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
-        <v>22</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="30">
-        <v>6</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
-        <v>22</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="30">
-        <v>7</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
-        <v>22</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="30">
-        <v>8</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="20">
-        <v>22</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="30">
-        <v>9</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="20">
-        <v>22</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="20">
-        <v>10</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="20">
-        <v>22</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="20">
-        <v>11</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="20">
-        <v>22</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="20">
-        <v>12</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="20">
-        <v>22</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="20">
-        <v>13</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="20">
-        <v>22</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="20">
-        <v>14</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="20">
-        <v>22</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="20">
-        <v>15</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="20">
-        <v>22</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="20">
-        <v>16</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="20">
-        <v>22</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="20">
-        <v>17</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="20">
-        <v>23</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="31">
-        <v>18</v>
-      </c>
-      <c r="D47" s="38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="20">
-        <v>26</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="36"/>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="20">
-        <v>23</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="31">
-        <v>19</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="20">
-        <v>26</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="36"/>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="20">
-        <v>23</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" s="31">
-        <v>20</v>
-      </c>
-      <c r="D51" s="35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="20">
-        <v>26</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="36"/>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="20">
-        <v>23</v>
-      </c>
-      <c r="B53" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="31">
-        <v>21</v>
-      </c>
-      <c r="D53" s="35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="20">
-        <v>26</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="36"/>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="20">
-        <v>23</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" s="31">
-        <v>22</v>
-      </c>
-      <c r="D55" s="35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="20">
-        <v>26</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="32"/>
-      <c r="D56" s="36"/>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="20">
-        <v>23</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="31">
-        <v>23</v>
-      </c>
-      <c r="D57" s="38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="20">
-        <v>26</v>
-      </c>
-      <c r="B58" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="32"/>
-      <c r="D58" s="36"/>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="20">
-        <v>23</v>
-      </c>
-      <c r="B59" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59" s="31">
-        <v>24</v>
-      </c>
-      <c r="D59" s="38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="20">
-        <v>26</v>
-      </c>
-      <c r="B60" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C60" s="32"/>
-      <c r="D60" s="36"/>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="20">
-        <v>23</v>
-      </c>
-      <c r="B61" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C61" s="31">
-        <v>25</v>
-      </c>
-      <c r="D61" s="38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="20">
-        <v>26</v>
-      </c>
-      <c r="B62" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C62" s="32"/>
-      <c r="D62" s="36"/>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="33">
-        <v>26</v>
-      </c>
-      <c r="D63" s="37" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="D53:D54"/>
     <mergeCell ref="C61:C62"/>
@@ -2000,6 +1973,12 @@
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
